--- a/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_StrikeRate.xlsx
+++ b/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_StrikeRate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarvesh\R&amp;D Project\ConsoleApp1\ConsoleApp2\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarvesh\LiveProject\InnovatiaCS\WebApi5Paisa\NetTaskScheduler\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6F7147-B27D-4613-B90B-6D96BA7707EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC49933-E2B6-4D0B-910E-7449367964EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4846DFF-A069-4BA2-8089-4BD56B8961BB}"/>
   </bookViews>
@@ -96,12 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,20 +417,19 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -440,7 +437,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>48000</v>
       </c>
     </row>
@@ -448,7 +445,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>48100</v>
       </c>
     </row>
@@ -456,7 +453,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>48200</v>
       </c>
     </row>
@@ -464,7 +461,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>48300</v>
       </c>
     </row>
@@ -472,7 +469,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>48400</v>
       </c>
     </row>
@@ -480,7 +477,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>48500</v>
       </c>
     </row>
@@ -488,7 +485,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>48600</v>
       </c>
     </row>
@@ -496,7 +493,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>48700</v>
       </c>
     </row>
@@ -504,7 +501,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>48800</v>
       </c>
     </row>
@@ -512,7 +509,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>48900</v>
       </c>
     </row>
@@ -520,7 +517,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>49000</v>
       </c>
     </row>
@@ -528,7 +525,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>49100</v>
       </c>
     </row>
@@ -536,7 +533,7 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>49200</v>
       </c>
     </row>
@@ -544,7 +541,7 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>49300</v>
       </c>
     </row>
@@ -552,7 +549,7 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>49400</v>
       </c>
     </row>
@@ -560,7 +557,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>49500</v>
       </c>
     </row>
@@ -568,7 +565,7 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>49600</v>
       </c>
     </row>
@@ -576,7 +573,7 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>49700</v>
       </c>
     </row>
@@ -584,7 +581,7 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>49800</v>
       </c>
     </row>
@@ -592,7 +589,7 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>49900</v>
       </c>
     </row>
@@ -600,7 +597,7 @@
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>50000</v>
       </c>
     </row>
@@ -608,7 +605,7 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>50100</v>
       </c>
     </row>
@@ -616,7 +613,7 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>50200</v>
       </c>
     </row>
@@ -624,7 +621,7 @@
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>50300</v>
       </c>
     </row>
@@ -632,7 +629,7 @@
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>50400</v>
       </c>
     </row>
@@ -640,7 +637,7 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>50500</v>
       </c>
     </row>
@@ -648,7 +645,7 @@
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>50600</v>
       </c>
     </row>
@@ -656,7 +653,7 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>50700</v>
       </c>
     </row>
@@ -664,7 +661,7 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>50800</v>
       </c>
     </row>
@@ -672,7 +669,7 @@
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>50900</v>
       </c>
     </row>
@@ -680,7 +677,7 @@
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>51000</v>
       </c>
     </row>
@@ -688,7 +685,7 @@
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>51100</v>
       </c>
     </row>
@@ -696,7 +693,7 @@
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>51200</v>
       </c>
     </row>
@@ -704,7 +701,7 @@
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>51300</v>
       </c>
     </row>
@@ -712,7 +709,7 @@
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>51400</v>
       </c>
     </row>
@@ -720,7 +717,7 @@
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>51500</v>
       </c>
     </row>
@@ -728,7 +725,7 @@
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>51600</v>
       </c>
     </row>
